--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
-    <t>可能的工作项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>查询业务都有，代办业务是一个可以增值的点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,9 +275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,17 +286,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +584,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -598,14 +598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -614,23 +614,23 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -640,21 +640,21 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -664,23 +664,23 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -690,23 +690,23 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -716,23 +716,23 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -741,24 +741,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -768,23 +768,23 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -794,16 +794,16 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -812,18 +812,18 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -832,9 +832,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,56 @@
   </si>
   <si>
     <t>BD资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发什么时候有时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东的合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过深圳通搭线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时可签合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周四3.1日见面沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过车牌号获取车辆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过车牌号获取车牌信息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若计算机手上有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多业务的根基
+例如数据分析
+再例如电商推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,9 +321,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,15 +337,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +632,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -595,18 +643,19 @@
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -614,25 +663,27 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -640,23 +691,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -664,25 +717,27 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -690,51 +745,55 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -742,51 +801,51 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -794,17 +853,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -812,19 +871,19 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -832,27 +891,47 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1182,12 +1261,13 @@
       <c r="L35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="6">
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,24 @@
     <t>很多业务的根基
 例如数据分析
 再例如电商推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际驾照的合作落实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一项用户增值服务，用户办理国际驾照
+1、软文合作。租租车提供软件，9.9元办理。不给我们钱，他们自己补贴
+2、业务合作。把租租车的业务当成我们的一个车主业务提供。定价15元，CPA一个给我们4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同随时可签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +264,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -318,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +358,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,12 +374,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +660,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,15 +675,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -709,7 +737,7 @@
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -735,7 +763,7 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1"/>
@@ -763,7 +791,7 @@
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1"/>
@@ -791,7 +819,7 @@
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="1"/>
@@ -819,7 +847,7 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -833,19 +861,19 @@
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -859,11 +887,11 @@
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -883,7 +911,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -905,7 +933,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -929,7 +957,7 @@
       <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="1"/>
@@ -938,14 +966,26 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>

--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>合同随时可签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽配厂的合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加汽配维修、洗车、配件的销售内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车发发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作细节接洽中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +287,12 @@
     <font>
       <sz val="10"/>
       <color theme="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -343,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +381,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -374,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,15 +700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -763,7 +788,7 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1"/>
@@ -791,7 +816,7 @@
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1"/>
@@ -819,7 +844,7 @@
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="1"/>
@@ -847,7 +872,7 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -861,16 +886,16 @@
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5"/>
@@ -887,10 +912,10 @@
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -983,7 +1008,7 @@
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="1"/>
@@ -992,14 +1017,26 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>

--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,11 +42,6 @@
   </si>
   <si>
     <t>车秀的合作落实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、公众号软文广告
-2、小程序内跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,11 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、首先明确合作方案
-2、确定开发模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合作方案在3月上旬明确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可能需要开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要开发对接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本周四3.1日见面沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过车牌号获取车辆信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,29 +214,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>合同随时可签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽配厂的合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作细节接洽中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险萝卜
+3部分可以合作：
+1、车险
+2、意外健康险，和车主相关的
+3、现金贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待细粒度的方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加汽配维修、洗车、配件的销售内容，整合汽修内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车发发，连锁汽修厂
+深圳、广州、东莞，近50家，号称18年开到200家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要开发对接
+直接把他的H5拿过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作为一项用户增值服务，用户办理国际驾照
-1、软文合作。租租车提供软件，9.9元办理。不给我们钱，他们自己补贴
-2、业务合作。把租租车的业务当成我们的一个车主业务提供。定价15元，CPA一个给我们4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同随时可签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽配厂的合作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、增加汽配维修、洗车、配件的销售内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车发发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作细节接洽中</t>
+1、软文合作。租租车提供软件，9.9元办理。不给我们钱，他们自己补贴——不建议，相当于生生的吃掉我们的用户红利，而我们得不到任何好处
+2、业务合作。把租租车的业务当成我们的一个车主业务提供。定价15元，CPA一个给我们4元
+3、国际租车，CPA，一单4%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,6 +385,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -398,9 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,15 +701,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -720,22 +721,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -757,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -776,20 +777,18 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -802,22 +801,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -825,27 +824,25 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -858,21 +855,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -884,21 +881,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -910,13 +907,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -928,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -948,13 +945,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -970,20 +967,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -991,25 +988,25 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="165" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1022,20 +1019,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1323,28 +1320,15 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/operation/工作计划表.xlsx
+++ b/trunk/operation/工作计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12252"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>平安银行的合作落实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、信用卡推广，先做信用卡推广广告
-2、新一贷广告
-3、金融领域的合作落实，产出合适的方案，给市场部汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,10 +213,6 @@
   </si>
   <si>
     <t>汽配厂的合作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作细节接洽中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,6 +246,32 @@
 1、软文合作。租租车提供软件，9.9元办理。不给我们钱，他们自己补贴——不建议，相当于生生的吃掉我们的用户红利，而我们得不到任何好处
 2、业务合作。把租租车的业务当成我们的一个车主业务提供。定价15元，CPA一个给我们4元
 3、国际租车，CPA，一单4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有明确的合作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时延后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、信用卡推广，先做信用卡推广广告
+2、新一贷广告
+3、金融领域的合作落实，产出合适的方案，给公司汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安信托理财的合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入平安信托的理财产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安信托</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -721,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -733,10 +749,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -758,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -779,16 +795,16 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -804,19 +820,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -829,20 +845,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -855,19 +871,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="1"/>
@@ -881,19 +897,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="1"/>
@@ -907,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -925,15 +941,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -945,17 +963,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -967,20 +987,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -993,20 +1013,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1019,20 +1039,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1041,13 +1061,23 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
